--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_30_1.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_30_1.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_9</t>
+          <t>model_30_1_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998805204099893</v>
+        <v>0.9997970118288222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992629281219766</v>
+        <v>0.999282800491203</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999381653199226</v>
+        <v>0.9997241455804438</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998375692818146</v>
+        <v>0.9999508463775417</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999044969780239</v>
+        <v>0.9998652894433492</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001115289527270645</v>
+        <v>0.0001894805476435744</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000688024244418694</v>
+        <v>0.0006694742600420402</v>
       </c>
       <c r="I2" t="n">
-        <v>9.165745470749101e-05</v>
+        <v>0.0002281662649507291</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001431578032145465</v>
+        <v>5.954088026711674e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001174073981498324</v>
+        <v>0.0001438535726089229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001204365602722522</v>
+        <v>0.001450328529607627</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0105607269033464</v>
+        <v>0.01376519333840155</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00011470040641</v>
+        <v>1.000194868644331</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0110103189113403</v>
+        <v>0.01435120611669574</v>
       </c>
       <c r="P2" t="n">
-        <v>116.2024526701156</v>
+        <v>115.1424483793363</v>
       </c>
       <c r="Q2" t="n">
-        <v>175.9273680886575</v>
+        <v>174.8673637978781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_10</t>
+          <t>model_30_1_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998957520930826</v>
+        <v>0.9998288043484719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999262218636666</v>
+        <v>0.9992802403330625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999249092258707</v>
+        <v>0.9997449759626374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998645924927997</v>
+        <v>0.9999467796261166</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999061929886487</v>
+        <v>0.9998710500595904</v>
       </c>
       <c r="G3" t="n">
-        <v>9.731084515318431e-05</v>
+        <v>0.0001598036260809376</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006886865178133291</v>
+        <v>0.0006718640552882574</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001113069432896512</v>
+        <v>0.0002109369216243341</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001193409811032669</v>
+        <v>6.446702706099279e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000115322394025563</v>
+        <v>0.0001377019743426635</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00112586111750191</v>
+        <v>0.001351941542850439</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009864625951002111</v>
+        <v>0.01264134589673653</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000100077990641</v>
+        <v>1.000164347825467</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0102845835003271</v>
+        <v>0.01317951416275412</v>
       </c>
       <c r="P3" t="n">
-        <v>116.4752002280107</v>
+        <v>115.483129667039</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.2001156465526</v>
+        <v>175.2080450855808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_8</t>
+          <t>model_30_1_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998611587446784</v>
+        <v>0.9997567610724298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992611312727756</v>
+        <v>0.9992801207684023</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999512328829071</v>
+        <v>0.9996986595516028</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998041164047305</v>
+        <v>0.9999547134720411</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999900383440306</v>
+        <v>0.9998576133969763</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001296022174159203</v>
+        <v>0.0002270528619317793</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0006897015242752534</v>
+        <v>0.0006719756636501561</v>
       </c>
       <c r="I4" t="n">
-        <v>7.228742544745268e-05</v>
+        <v>0.0002492464130173157</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001726413913440625</v>
+        <v>5.485658236484813e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001224644083957576</v>
+        <v>0.0001520506042424806</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001290457283854125</v>
+        <v>0.001564637638216357</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01138429696625665</v>
+        <v>0.01506827335602123</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000133287605109</v>
+        <v>1.000233509370467</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01186895005685369</v>
+        <v>0.01570976094841299</v>
       </c>
       <c r="P4" t="n">
-        <v>115.9020813290035</v>
+        <v>114.7806553912943</v>
       </c>
       <c r="Q4" t="n">
-        <v>175.6269967475453</v>
+        <v>174.5055708098362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_11</t>
+          <t>model_30_1_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999076092439371</v>
+        <v>0.999854150471381</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9992595174380214</v>
+        <v>0.9992743579179458</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999117056529324</v>
+        <v>0.9997624044148604</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998864697905279</v>
+        <v>0.999942344240878</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999060783262552</v>
+        <v>0.9998752841074656</v>
       </c>
       <c r="G5" t="n">
-        <v>8.624271529921984e-05</v>
+        <v>0.0001361441329113856</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006912079681791038</v>
+        <v>0.0006773550315914491</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001308785799030203</v>
+        <v>0.0001965214018223662</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001000594934756716</v>
+        <v>6.983970822300591e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001154633551492077</v>
+        <v>0.0001331805550226861</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001054427661704855</v>
+        <v>0.001263700525661722</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009286695607115581</v>
+        <v>0.01166808180085251</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00008869512582</v>
+        <v>1.000140015547474</v>
       </c>
       <c r="O5" t="n">
-        <v>0.009682049465220579</v>
+        <v>0.01216481619937389</v>
       </c>
       <c r="P5" t="n">
-        <v>116.7166899318374</v>
+        <v>115.8035928652033</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.4416053503792</v>
+        <v>175.5285082837451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_7</t>
+          <t>model_30_1_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998365960140997</v>
+        <v>0.9997058585788922</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9992561081651196</v>
+        <v>0.9992691412557062</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999634104350015</v>
+        <v>0.9996654647068434</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997629834650005</v>
+        <v>0.9999589934134836</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998929782095253</v>
+        <v>0.9998471843779485</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001525304482319417</v>
+        <v>0.0002745681052879645</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006943903747832167</v>
+        <v>0.0006822245568071516</v>
       </c>
       <c r="I6" t="n">
-        <v>5.423665801174484e-05</v>
+        <v>0.0002767027204296368</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000208893778560537</v>
+        <v>4.967219374335364e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001315680876371614</v>
+        <v>0.0001631874570864952</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001385574174645388</v>
+        <v>0.001711168452391296</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0123503217865747</v>
+        <v>0.01657009671933041</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000156867826464</v>
+        <v>1.000282375764264</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01287610055371974</v>
+        <v>0.01727552004150119</v>
       </c>
       <c r="P6" t="n">
-        <v>115.576292642618</v>
+        <v>114.4006224421848</v>
       </c>
       <c r="Q6" t="n">
-        <v>175.3012080611598</v>
+        <v>174.1255378607266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_12</t>
+          <t>model_30_1_8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999166578760739</v>
+        <v>0.9998744301668162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9992554103141392</v>
+        <v>0.9992664299153927</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9998985896399126</v>
+        <v>0.9997777523229091</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999040352900024</v>
+        <v>0.9999374763694286</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999044619303619</v>
+        <v>0.9998784671152507</v>
       </c>
       <c r="G7" t="n">
-        <v>7.779621438856559e-05</v>
+        <v>0.0001172139273984528</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0006950417880412559</v>
+        <v>0.0006847554739757269</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001503204265786083</v>
+        <v>0.0001838267534642582</v>
       </c>
       <c r="J7" t="n">
-        <v>8.457819569379978e-05</v>
+        <v>7.573626958774374e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001174504842712915</v>
+        <v>0.000129781511526001</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0009902162567301334</v>
+        <v>0.001185333057761108</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00882021623252886</v>
+        <v>0.01082653810774491</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000080008438969</v>
+        <v>1.000120547039856</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009195711097912274</v>
+        <v>0.01128744624901511</v>
       </c>
       <c r="P7" t="n">
-        <v>116.9228355724169</v>
+        <v>116.1030197068477</v>
       </c>
       <c r="Q7" t="n">
-        <v>176.6477509909587</v>
+        <v>175.8279351253895</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_13</t>
+          <t>model_30_1_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999235686253127</v>
+        <v>0.9998906966176944</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9992502643416697</v>
+        <v>0.9992572970528713</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998860137467248</v>
+        <v>0.99979090953162</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999918151464385</v>
+        <v>0.9999324757448319</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999019410922625</v>
+        <v>0.999880726420914</v>
       </c>
       <c r="G8" t="n">
-        <v>7.134533332100047e-05</v>
+        <v>0.0001020299095183691</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0006998453274593972</v>
+        <v>0.0006932806002531407</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001689616544272541</v>
+        <v>0.0001729440887110713</v>
       </c>
       <c r="J8" t="n">
-        <v>7.213694974610595e-05</v>
+        <v>8.17936378036136e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001205494965986822</v>
+        <v>0.0001273688632573424</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000931759252804606</v>
+        <v>0.001114633351680044</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008446616678943142</v>
+        <v>0.01010098557163454</v>
       </c>
       <c r="N8" t="n">
-        <v>1.0000733741197</v>
+        <v>1.000104931247013</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00880620663787272</v>
+        <v>0.01053100543934171</v>
       </c>
       <c r="P8" t="n">
-        <v>117.0959572432649</v>
+        <v>116.3804891141829</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.8208726618067</v>
+        <v>176.1054045327247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_6</t>
+          <t>model_30_1_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998056920340068</v>
+        <v>0.9999037486071203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9992469489619393</v>
+        <v>0.999247550043685</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999744767152963</v>
+        <v>0.9998022292857773</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997123412355921</v>
+        <v>0.9999274585135201</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998814986866927</v>
+        <v>0.9998822647026623</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000181377957120698</v>
+        <v>8.984645030532194e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007029400889094325</v>
+        <v>0.0007023790054842537</v>
       </c>
       <c r="I9" t="n">
-        <v>3.783312711888788e-05</v>
+        <v>0.000163581229742159</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002535271483626461</v>
+        <v>8.787112210428946e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001456805301534641</v>
+        <v>0.0001257261759232243</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001490554514958145</v>
+        <v>0.001050841716172154</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01346766338756274</v>
+        <v>0.009478736746282277</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000186535647353</v>
+        <v>1.000092401337165</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01404100969987782</v>
+        <v>0.009882266193261562</v>
       </c>
       <c r="P9" t="n">
-        <v>115.2298550859765</v>
+        <v>116.6348169048239</v>
       </c>
       <c r="Q9" t="n">
-        <v>174.9547705045183</v>
+        <v>176.3597323233657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_14</t>
+          <t>model_30_1_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999287305245272</v>
+        <v>0.9996421782748141</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9992445109933744</v>
+        <v>0.9992470848779529</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998739237995466</v>
+        <v>0.999622319549509</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999294889546457</v>
+        <v>0.9999635267402521</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998987147790313</v>
+        <v>0.9998330466603785</v>
       </c>
       <c r="G10" t="n">
-        <v>6.652692698542025e-05</v>
+        <v>0.0003340108739026307</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007052158255502641</v>
+        <v>0.0007028132172767422</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001868825652254967</v>
+        <v>0.0003123891865574244</v>
       </c>
       <c r="J10" t="n">
-        <v>6.214468832034008e-05</v>
+        <v>4.418087381945947e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.000124515790379236</v>
+        <v>0.0001782847236374179</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0008786628229476072</v>
+        <v>0.001868998346711964</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008156404047459901</v>
+        <v>0.01827596437681554</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000068418696454</v>
+        <v>1.000343508856179</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008503639053844271</v>
+        <v>0.01905401001679832</v>
       </c>
       <c r="P10" t="n">
-        <v>117.2358075503705</v>
+        <v>114.0086740178456</v>
       </c>
       <c r="Q10" t="n">
-        <v>176.9607229689124</v>
+        <v>173.7335894363875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_15</t>
+          <t>model_30_1_11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999324973647038</v>
+        <v>0.9999142205018977</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9992384315882955</v>
+        <v>0.9992374788691932</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998623721527663</v>
+        <v>0.9998121430853208</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999385743970998</v>
+        <v>0.9999224509659241</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998950090903719</v>
+        <v>0.9998832639818483</v>
       </c>
       <c r="G11" t="n">
-        <v>6.301074702576709e-05</v>
+        <v>8.007139619368786e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007108906833364049</v>
+        <v>0.0007117800047988749</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002040055541411247</v>
+        <v>0.0001553812718914103</v>
       </c>
       <c r="J11" t="n">
-        <v>5.413726215434898e-05</v>
+        <v>9.393687630356095e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001290714081477368</v>
+        <v>0.0001246590740974856</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0008305609383180908</v>
+        <v>0.000993178464214416</v>
       </c>
       <c r="M11" t="n">
-        <v>0.007937930903312719</v>
+        <v>0.008948262188474802</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000064802529884</v>
+        <v>1.000082348318178</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008275865055648989</v>
+        <v>0.009329208235294505</v>
       </c>
       <c r="P11" t="n">
-        <v>117.3444105168212</v>
+        <v>116.8651837377364</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.069325935363</v>
+        <v>176.5900991562782</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_5</t>
+          <t>model_30_1_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9997668109502269</v>
+        <v>0.9999226051685089</v>
       </c>
       <c r="C12" t="n">
-        <v>0.99923228777905</v>
+        <v>0.9992273382492889</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999838276612848</v>
+        <v>0.9998206546678052</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999649860193244</v>
+        <v>0.9999176288588547</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998647412872552</v>
+        <v>0.9998838253893494</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002176717421469013</v>
+        <v>7.224467795641276e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007166256595849956</v>
+        <v>0.000721245828357816</v>
       </c>
       <c r="I12" t="n">
-        <v>2.397223372781357e-05</v>
+        <v>0.0001483411237313198</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0003085946187588708</v>
+        <v>9.977800225319819e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001662813721687245</v>
+        <v>0.000124059562992259</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00160765243348538</v>
+        <v>0.0009411969293268895</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01475370265888876</v>
+        <v>0.00849968693284716</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000223861487782</v>
+        <v>1.000074299038231</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01538179832545248</v>
+        <v>0.008861536202356003</v>
       </c>
       <c r="P12" t="n">
-        <v>114.8650447999089</v>
+        <v>117.0709037903756</v>
       </c>
       <c r="Q12" t="n">
-        <v>174.5899602184507</v>
+        <v>176.7958192089175</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_16</t>
+          <t>model_30_1_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999352003428637</v>
+        <v>0.9999293082866096</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9992321425661599</v>
+        <v>0.9992173938277311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998515684795555</v>
+        <v>0.9998279840357563</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999458453016263</v>
+        <v>0.9999130018766704</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998911006457457</v>
+        <v>0.9998840396198789</v>
       </c>
       <c r="G13" t="n">
-        <v>6.048763556061294e-05</v>
+        <v>6.598761144228767e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007167612094437999</v>
+        <v>0.0007305285093723267</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000220019822942234</v>
+        <v>0.000142278815530695</v>
       </c>
       <c r="J13" t="n">
-        <v>4.772907329059027e-05</v>
+        <v>0.0001053827690731095</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000133876285573249</v>
+        <v>0.0001238307923019023</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007867935982494398</v>
+        <v>0.0008943554577918673</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00777737973617162</v>
+        <v>0.008123275905833045</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000062207670851</v>
+        <v>1.000067864044855</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00810847889293596</v>
+        <v>0.008469100578643652</v>
       </c>
       <c r="P13" t="n">
-        <v>117.426143169426</v>
+        <v>117.2520870779532</v>
       </c>
       <c r="Q13" t="n">
-        <v>177.1510585879679</v>
+        <v>176.977002496495</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_17</t>
+          <t>model_30_1_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999370792467648</v>
+        <v>0.999562254437128</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992258747574836</v>
+        <v>0.9992098897986923</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999841566810039</v>
+        <v>0.9995649466281671</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999516054027652</v>
+        <v>0.999967138240597</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998871365229648</v>
+        <v>0.9998128754439877</v>
       </c>
       <c r="G14" t="n">
-        <v>5.873376124320356e-05</v>
+        <v>0.0004086162681315935</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007226119337181171</v>
+        <v>0.0007375331910912094</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002348452828550943</v>
+        <v>0.0003598438011796481</v>
       </c>
       <c r="J14" t="n">
-        <v>4.265242624663481e-05</v>
+        <v>3.98061828228648e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001387496113803997</v>
+        <v>0.0001998249920012565</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0007471031695462848</v>
+        <v>0.002034051203969963</v>
       </c>
       <c r="M14" t="n">
-        <v>0.007663795485476081</v>
+        <v>0.02021425902999151</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000060403923106</v>
+        <v>1.000420235740357</v>
       </c>
       <c r="O14" t="n">
-        <v>0.007990059125536499</v>
+        <v>0.02107482188618306</v>
       </c>
       <c r="P14" t="n">
-        <v>117.4849916950355</v>
+        <v>113.6054681241045</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.2099071135773</v>
+        <v>173.3303835426463</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_18</t>
+          <t>model_30_1_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999382743426997</v>
+        <v>0.9999346624673817</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9992196635613134</v>
+        <v>0.9992077371194641</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998322056481307</v>
+        <v>0.9998343038537254</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999561595128719</v>
+        <v>0.999908633373441</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998831253608499</v>
+        <v>0.9998840094748813</v>
       </c>
       <c r="G15" t="n">
-        <v>5.761819164670031e-05</v>
+        <v>6.098971871290118e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007284098127030257</v>
+        <v>0.0007395426226590549</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0002487213192887242</v>
+        <v>0.0001370515320110267</v>
       </c>
       <c r="J15" t="n">
-        <v>3.86386756103427e-05</v>
+        <v>0.0001106744345642245</v>
       </c>
       <c r="K15" t="n">
-        <v>0.000143680765366093</v>
+        <v>0.0001238629832876256</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007113544479882783</v>
+        <v>0.0008520736020052243</v>
       </c>
       <c r="M15" t="n">
-        <v>0.007590664769748451</v>
+        <v>0.007809591456209549</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000059256631008</v>
+        <v>1.000062724031314</v>
       </c>
       <c r="O15" t="n">
-        <v>0.007913815083838894</v>
+        <v>0.008142061932583357</v>
       </c>
       <c r="P15" t="n">
-        <v>117.5233444258514</v>
+        <v>117.4096105073731</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.2482598443932</v>
+        <v>177.1345259259149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_19</t>
+          <t>model_30_1_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999389729514069</v>
+        <v>0.9999389274374003</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9992136615319522</v>
+        <v>0.9991985416526484</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998235773942395</v>
+        <v>0.9998397062194111</v>
       </c>
       <c r="E16" t="n">
-        <v>0.99995975061735</v>
+        <v>0.9999045476090888</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999879213262341</v>
+        <v>0.9998837846158845</v>
       </c>
       <c r="G16" t="n">
-        <v>5.696607108383438e-05</v>
+        <v>5.700855641112586e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007340124436530609</v>
+        <v>0.0007481261872971995</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002615109672540535</v>
+        <v>0.0001325830968038727</v>
       </c>
       <c r="J16" t="n">
-        <v>3.547366695961274e-05</v>
+        <v>0.000115623612141275</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001484901347215728</v>
+        <v>0.0001241031038158824</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0006790323741152954</v>
+        <v>0.0008139958185185245</v>
       </c>
       <c r="M16" t="n">
-        <v>0.007547587103428113</v>
+        <v>0.007550401076176408</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000058585966649</v>
+        <v>1.000058629660096</v>
       </c>
       <c r="O16" t="n">
-        <v>0.007868903512080236</v>
+        <v>0.007871837281474153</v>
       </c>
       <c r="P16" t="n">
-        <v>117.5461094230022</v>
+        <v>117.5446183778392</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.271024841544</v>
+        <v>177.269533796381</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_4</t>
+          <t>model_30_1_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9997184820715105</v>
+        <v>0.9999423121963786</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9992113538145675</v>
+        <v>0.9991897992735415</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999907605815511</v>
+        <v>0.9998443434698929</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9995732990585475</v>
+        <v>0.9999007399552243</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998414758271311</v>
+        <v>0.9998834157463068</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002627846290360871</v>
+        <v>5.384903247859739e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007361665965346401</v>
+        <v>0.0007562868144474485</v>
       </c>
       <c r="I17" t="n">
-        <v>1.369557628415116e-05</v>
+        <v>0.0001287475080038662</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0003760715343151526</v>
+        <v>0.0001202359082753288</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001948829502487693</v>
+        <v>0.0001244970091481499</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001737108492397262</v>
+        <v>0.0007797078123713017</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01621063320898006</v>
+        <v>0.007338190000170164</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00027025721135</v>
+        <v>1.000055380291476</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01690075342532317</v>
+        <v>0.007650591940624836</v>
       </c>
       <c r="P17" t="n">
-        <v>114.4883515245451</v>
+        <v>117.6586522429891</v>
       </c>
       <c r="Q17" t="n">
-        <v>174.213266943087</v>
+        <v>177.3835676615309</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_20</t>
+          <t>model_30_1_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999392672598819</v>
+        <v>0.9999449907783015</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9992078930889268</v>
+        <v>0.999181551061797</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998155823199056</v>
+        <v>0.9998483102643034</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999625543118102</v>
+        <v>0.9998971919255861</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998753964633347</v>
+        <v>0.999882944637167</v>
       </c>
       <c r="G18" t="n">
-        <v>5.669134704101872e-05</v>
+        <v>5.134869382984556e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007393970320118997</v>
+        <v>0.0007639861580562865</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0002733620540991873</v>
+        <v>0.0001254664706149433</v>
       </c>
       <c r="J18" t="n">
-        <v>3.300263965451048e-05</v>
+        <v>0.0001245337157878747</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001531823468768489</v>
+        <v>0.000125000093201409</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006499694349088325</v>
+        <v>0.0007488079653445183</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007529365646654353</v>
+        <v>0.007165800292350154</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000058303430513</v>
+        <v>1.000052808852831</v>
       </c>
       <c r="O18" t="n">
-        <v>0.007849906330168001</v>
+        <v>0.007470863246047038</v>
       </c>
       <c r="P18" t="n">
-        <v>117.5557779367649</v>
+        <v>117.7537421170554</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.2806933553067</v>
+        <v>177.4786575355973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_21</t>
+          <t>model_30_1_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999392627444169</v>
+        <v>0.9999471083257613</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999202390894059</v>
+        <v>0.9991738301167159</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9998081823456875</v>
+        <v>0.9998517418890848</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999964742204857</v>
+        <v>0.9998939231713938</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999871720152341</v>
+        <v>0.9998824197004116</v>
       </c>
       <c r="G19" t="n">
-        <v>5.669556202940116e-05</v>
+        <v>4.937205622566062e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007445330894024628</v>
+        <v>0.0007711933213790981</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0002843310249241925</v>
+        <v>0.0001226280857511235</v>
       </c>
       <c r="J19" t="n">
-        <v>3.107434699083786e-05</v>
+        <v>0.0001284932307179239</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001577018489787594</v>
+        <v>0.0001255606582345237</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0006247063274495905</v>
+        <v>0.0007209750493513066</v>
       </c>
       <c r="M19" t="n">
-        <v>0.007529645544738554</v>
+        <v>0.007026525188573697</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00005830776536</v>
+        <v>1.000050776007269</v>
       </c>
       <c r="O19" t="n">
-        <v>0.007850198144093117</v>
+        <v>0.007325658912763606</v>
       </c>
       <c r="P19" t="n">
-        <v>117.5556292427606</v>
+        <v>117.832251914533</v>
       </c>
       <c r="Q19" t="n">
-        <v>177.2805446613024</v>
+        <v>177.5571673330748</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_22</t>
+          <t>model_30_1_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999390566075428</v>
+        <v>0.9999487673332642</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991972409698598</v>
+        <v>0.99916663057774</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9998014028911221</v>
+        <v>0.9998546914136055</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999664447121883</v>
+        <v>0.999890891691084</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998682432784426</v>
+        <v>0.9998818426308239</v>
       </c>
       <c r="G20" t="n">
-        <v>5.688798175301716e-05</v>
+        <v>4.782344554366559e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007493403175869026</v>
+        <v>0.0007779137749898014</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0002943802003867119</v>
+        <v>0.0001201884583768116</v>
       </c>
       <c r="J20" t="n">
-        <v>2.957384750263244e-05</v>
+        <v>0.0001321653304967228</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001619761715045066</v>
+        <v>0.0001261768944367672</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0006075892143882822</v>
+        <v>0.0006959211981503384</v>
       </c>
       <c r="M20" t="n">
-        <v>0.007542412197236184</v>
+        <v>0.006915449771610347</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000058505656759</v>
+        <v>1.000049183360066</v>
       </c>
       <c r="O20" t="n">
-        <v>0.007863508299418183</v>
+        <v>0.007209854785342315</v>
       </c>
       <c r="P20" t="n">
-        <v>117.5488529122717</v>
+        <v>117.8959890923474</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.2737683308136</v>
+        <v>177.6209045108892</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_23</t>
+          <t>model_30_1_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999386994354449</v>
+        <v>0.9999500667500548</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991924144019935</v>
+        <v>0.999159967138077</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9997951992974602</v>
+        <v>0.9998572301267004</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999677590049196</v>
+        <v>0.9998881146814793</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998649738824607</v>
+        <v>0.9998812507904431</v>
       </c>
       <c r="G21" t="n">
-        <v>5.722138622836772e-05</v>
+        <v>4.661049700747263e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000753845706828389</v>
+        <v>0.0007841338034240545</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0003035757780849592</v>
+        <v>0.0001180886236685111</v>
       </c>
       <c r="J21" t="n">
-        <v>2.841549973253761e-05</v>
+        <v>0.0001355291842293092</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001659954294066922</v>
+        <v>0.0001268089039489102</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005921793787039043</v>
+        <v>0.0006733718761675447</v>
       </c>
       <c r="M21" t="n">
-        <v>0.007564481887635644</v>
+        <v>0.006827188074710747</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000058848541973</v>
+        <v>1.000047935919947</v>
       </c>
       <c r="O21" t="n">
-        <v>0.007886517542228506</v>
+        <v>0.007117835605278799</v>
       </c>
       <c r="P21" t="n">
-        <v>117.5371656886896</v>
+        <v>117.9473695690566</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.2620811072315</v>
+        <v>177.6722849875984</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_24</t>
+          <t>model_30_1_0</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999382478589756</v>
+        <v>0.9994611242219482</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991879075855854</v>
+        <v>0.9991552813124468</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997895599171377</v>
+        <v>0.9994883512495022</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999687576900204</v>
+        <v>0.99996753597859</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998619339761908</v>
+        <v>0.9997834373470518</v>
       </c>
       <c r="G22" t="n">
-        <v>5.764291304061012e-05</v>
+        <v>0.0005030168848984595</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007580526221188609</v>
+        <v>0.0007885078159658996</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0003119350231856255</v>
+        <v>0.0004231978032310768</v>
       </c>
       <c r="J22" t="n">
-        <v>2.753531175623883e-05</v>
+        <v>3.932439391223251e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001697325623096658</v>
+        <v>0.0002312610985716547</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0005782285526175035</v>
+        <v>0.002241962378509629</v>
       </c>
       <c r="M22" t="n">
-        <v>0.007592293002816088</v>
+        <v>0.02242803791905256</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000059282055384</v>
+        <v>1.00051732074693</v>
       </c>
       <c r="O22" t="n">
-        <v>0.007915512634159126</v>
+        <v>0.02338284592570549</v>
       </c>
       <c r="P22" t="n">
-        <v>117.5224864991689</v>
+        <v>113.1897736400827</v>
       </c>
       <c r="Q22" t="n">
-        <v>177.2474019177108</v>
+        <v>172.9146890586245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_3</t>
+          <t>model_30_1_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9996577736735254</v>
+        <v>0.9999510768779657</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991820612661938</v>
+        <v>0.9991538116723819</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999943854728099</v>
+        <v>0.9998594119268783</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9994788005008198</v>
+        <v>0.9998855741888557</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998097869089739</v>
+        <v>0.9998806548702051</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0003194532537645221</v>
+        <v>4.566758694220163e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007635099046472339</v>
+        <v>0.0007898796604567488</v>
       </c>
       <c r="I23" t="n">
-        <v>8.322405339221541e-06</v>
+        <v>0.0001162840007870557</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0004593575413117263</v>
+        <v>0.0001386065396622809</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000233839973325474</v>
+        <v>0.0001274452702246683</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001883872801096304</v>
+        <v>0.0006530576057660647</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0178732552649069</v>
+        <v>0.006757779734661499</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000328537273416</v>
+        <v>1.000046966197153</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01863415674427294</v>
+        <v>0.007045472408498582</v>
       </c>
       <c r="P23" t="n">
-        <v>114.0977992108946</v>
+        <v>117.9882435379766</v>
       </c>
       <c r="Q23" t="n">
-        <v>173.8227146294364</v>
+        <v>177.7131589565184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_2</t>
+          <t>model_30_1_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9995820088179013</v>
+        <v>0.9999518534441617</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991421937549465</v>
+        <v>0.9991481402949984</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999938257912065</v>
+        <v>0.9998612837343711</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9993619426893715</v>
+        <v>0.9998832493994471</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997675608505396</v>
+        <v>0.9998800646112881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0003901764207967549</v>
+        <v>4.494269648544844e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000800724476415042</v>
+        <v>0.0007951736422994913</v>
       </c>
       <c r="I24" t="n">
-        <v>9.152020551176088e-06</v>
+        <v>0.0001147357808055827</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0005623498063357073</v>
+        <v>0.0001414226089752705</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002857509134434417</v>
+        <v>0.0001280755909366103</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002064598521414417</v>
+        <v>0.0006347902759154579</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01975288386025582</v>
+        <v>0.006703931420103315</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000401271534815</v>
+        <v>1.000046220693605</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02059380502029346</v>
+        <v>0.006989331659708278</v>
       </c>
       <c r="P24" t="n">
-        <v>113.6978231202153</v>
+        <v>118.0202445822115</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.4227385387572</v>
+        <v>177.7451600007533</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_1</t>
+          <t>model_30_1_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9994876303509294</v>
+        <v>0.9999524514713243</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990888778017953</v>
+        <v>0.9991429365919353</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999878575463976</v>
+        <v>0.9998629191975051</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9992176639712536</v>
+        <v>0.9998811326456886</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9997122491092122</v>
+        <v>0.9998794940625747</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0004782745769792171</v>
+        <v>4.438446437961335e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008504925783817962</v>
+        <v>0.0008000310706927215</v>
       </c>
       <c r="I25" t="n">
-        <v>1.799874099306489e-05</v>
+        <v>0.0001133830473044822</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0006895094013133263</v>
+        <v>0.0001439866800606993</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003537488416976907</v>
+        <v>0.0001286848636825907</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002304299317289979</v>
+        <v>0.0006183233080875516</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02186948963691693</v>
+        <v>0.006662166643038385</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000491874863108</v>
+        <v>1.000045646587529</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02280051908684501</v>
+        <v>0.006945788869618688</v>
       </c>
       <c r="P25" t="n">
-        <v>113.2906511231342</v>
+        <v>118.0452421022318</v>
       </c>
       <c r="Q25" t="n">
-        <v>173.015566541676</v>
+        <v>177.7701575207737</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_30_1_0</t>
+          <t>model_30_1_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9993704557978074</v>
+        <v>0.9999529078544234</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990177004926314</v>
+        <v>0.9991381613372009</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999753777200368</v>
+        <v>0.9998643385888111</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9990396615346385</v>
+        <v>0.9998792213246713</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9996409128189381</v>
+        <v>0.9998789597235639</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0005876518789501466</v>
+        <v>4.395845078946488e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009169334721635498</v>
+        <v>0.0008044885613778337</v>
       </c>
       <c r="I26" t="n">
-        <v>3.64975691263896e-05</v>
+        <v>0.0001122090323537582</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0008463912896489096</v>
+        <v>0.0001463019058802204</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000441446676399074</v>
+        <v>0.0001292554691169893</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002567060614304867</v>
+        <v>0.0006035064166972983</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02424153210814338</v>
+        <v>0.006630116951416836</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000604362434105</v>
+        <v>1.000045208459754</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02527354431687641</v>
+        <v>0.006912374756272802</v>
       </c>
       <c r="P26" t="n">
-        <v>112.8787516559877</v>
+        <v>118.0645313408356</v>
       </c>
       <c r="Q26" t="n">
-        <v>172.6036670745295</v>
+        <v>177.7894467593774</v>
       </c>
     </row>
   </sheetData>
